--- a/xlsx/country_comparison/share_policies_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_policies_supported_mean.xlsx
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.522388059701492</v>
+        <v>0.560529845741113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.554147465437788</v>
+        <v>0.549789529071297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.640394088669951</v>
+        <v>0.613583138173302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.522408963585434</v>
+        <v>0.522256728778468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.468784606866002</v>
+        <v>0.434829466210219</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_policies_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_policies_supported_mean.xlsx
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.560529845741113</v>
+        <v>0.577899385560676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.549789529071297</v>
+        <v>0.574479461533623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.613583138173302</v>
+        <v>0.652481803034289</v>
       </c>
       <c r="E2" t="n">
-        <v>0.522256728778468</v>
+        <v>0.588805087252292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.434829466210219</v>
+        <v>0.434701727834531</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_policies_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_policies_supported_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Share of policies supported</t>
@@ -383,25 +386,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.577899385560676</v>
+        <v>0.430561845558106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.574479461533623</v>
+        <v>0.589566777800299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.652481803034289</v>
+        <v>0.590932718569748</v>
       </c>
       <c r="E2" t="n">
-        <v>0.588805087252292</v>
+        <v>0.57397926841549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.434701727834531</v>
+        <v>0.645069170768649</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.587912778010105</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_policies_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_policies_supported_mean.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.430561845558106</v>
+        <v>0.437524114250398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.589566777800299</v>
+        <v>0.593737416810065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.590932718569748</v>
+        <v>0.58465767715194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.57397926841549</v>
+        <v>0.581396631415316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.645069170768649</v>
+        <v>0.646778832944687</v>
       </c>
       <c r="G2" t="n">
-        <v>0.587912778010105</v>
+        <v>0.58872589732771</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/share_policies_supported_mean.xlsx
+++ b/xlsx/country_comparison/share_policies_supported_mean.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.437524114250398</v>
+        <v>0.424206051354987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.593737416810065</v>
+        <v>0.592943236714775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58465767715194</v>
+        <v>0.584614213943681</v>
       </c>
       <c r="E2" t="n">
-        <v>0.581396631415316</v>
+        <v>0.581392145380103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.646778832944687</v>
+        <v>0.640938065863818</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58872589732771</v>
+        <v>0.588711714617521</v>
       </c>
     </row>
   </sheetData>
